--- a/Processing Images/multiplication_example.xlsx
+++ b/Processing Images/multiplication_example.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="106">
   <si>
     <t xml:space="preserve">ABOVE LEFT SIDE CORNER</t>
   </si>
@@ -617,11 +617,11 @@
   </sheetPr>
   <dimension ref="B3:AV50"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AF3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AV9" activeCellId="0" sqref="AV9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AD22" activeCellId="0" sqref="AD22:AF22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="2.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="4.3"/>
@@ -771,16 +771,16 @@
       </c>
       <c r="U7" s="2"/>
       <c r="V7" s="3" t="n">
-        <f aca="false">F8*O7</f>
-        <v>-19.69</v>
+        <f aca="false">B7*O7</f>
+        <v>-11.99</v>
       </c>
       <c r="W7" s="3" t="n">
-        <f aca="false">G8*O7</f>
-        <v>-21.67</v>
+        <f aca="false">C7*O7</f>
+        <v>-11.22</v>
       </c>
       <c r="X7" s="3" t="n">
-        <f aca="false">H8*O7</f>
-        <v>-20.9</v>
+        <f aca="false">D7*O7</f>
+        <v>-10.01</v>
       </c>
       <c r="Z7" s="4" t="n">
         <f aca="false">F7*Q7</f>
@@ -799,7 +799,7 @@
         <v>-17.38</v>
       </c>
       <c r="AE7" s="5" t="n">
-        <f aca="false">K7*O7</f>
+        <f aca="false">K7*S7</f>
         <v>-19.14</v>
       </c>
       <c r="AF7" s="5" t="n">
@@ -1047,16 +1047,16 @@
       <c r="N10" s="1"/>
       <c r="U10" s="2"/>
       <c r="V10" s="7" t="n">
-        <f aca="false">F9*O8</f>
-        <v>-19.58</v>
+        <f aca="false">B8*O8</f>
+        <v>-11.44</v>
       </c>
       <c r="W10" s="7" t="n">
-        <f aca="false">G9*O8</f>
-        <v>-21.56</v>
+        <f aca="false">C8*O8</f>
+        <v>-10.56</v>
       </c>
       <c r="X10" s="7" t="n">
-        <f aca="false">H9*O8</f>
-        <v>-20.79</v>
+        <f aca="false">D8*O8</f>
+        <v>-9.46</v>
       </c>
       <c r="Z10" s="8" t="n">
         <f aca="false">F8*Q8</f>
@@ -1075,7 +1075,7 @@
         <v>-19.47</v>
       </c>
       <c r="AE10" s="6" t="n">
-        <f aca="false">K8*O8</f>
+        <f aca="false">K8*S8</f>
         <v>-21.45</v>
       </c>
       <c r="AF10" s="6" t="n">
@@ -1458,6 +1458,33 @@
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="n">
         <v>2</v>
+      </c>
+      <c r="V22" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="W22" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="X22" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z22" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA22" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB22" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD22" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE22" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF22" s="0" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
